--- a/server/src/main/resources/templates/template-role.xlsx
+++ b/server/src/main/resources/templates/template-role.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\goudong-java\authentication\server\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840B1DB3-3D6D-4F6F-A4B8-92278867C415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA21988-B06C-47DD-ABEB-7BE82B4C190F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
@@ -91,8 +91,43 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>”表示该列必传。
-1、角色名称：该字段应以”ROLE_“开头且同一应用下角色名唯一；</t>
+      <t xml:space="preserve">”表示该列必传。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 角色名称：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该字段应以”ROLE_“开头且同一应用下角色名唯一；</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +177,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -529,7 +582,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/server/src/main/resources/templates/template-role.xlsx
+++ b/server/src/main/resources/templates/template-role.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA21988-B06C-47DD-ABEB-7BE82B4C190F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FFD52E-3C5E-45BA-B6FE-274AA05A5B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="3270" yWindow="1095" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -582,7 +582,8 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -609,6 +610,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="角色名称填写错误" error="角色名称长度范围1~32位" promptTitle="角色名称" prompt="必填，应用下角色名唯一，长度范围1~32位，建议使用“ROLE_”开头" sqref="A2:A1048576" xr:uid="{809CE5D7-5809-4C38-A487-CCD87D944EB8}">
+      <formula1>1</formula1>
+      <formula2>31</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/server/src/main/resources/templates/template-role.xlsx
+++ b/server/src/main/resources/templates/template-role.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FFD52E-3C5E-45BA-B6FE-274AA05A5B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47222588-1BF6-4C25-AA13-ACDEA3665C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1095" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="5145" yWindow="2610" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -583,7 +583,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -611,7 +611,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="角色名称填写错误" error="角色名称长度范围1~32位" promptTitle="角色名称" prompt="必填，应用下角色名唯一，长度范围1~32位，建议使用“ROLE_”开头" sqref="A2:A1048576" xr:uid="{809CE5D7-5809-4C38-A487-CCD87D944EB8}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="角色名称填写错误" error="角色名称长度范围1~32位" promptTitle="角色名称" prompt="必填，应用下角色名唯一，长度范围1~32位，建议使用“ROLE_”开头" sqref="A3:A1048576" xr:uid="{809CE5D7-5809-4C38-A487-CCD87D944EB8}">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
